--- a/assets/template/Template_Saldo_simpanan.xlsx
+++ b/assets/template/Template_Saldo_simpanan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\inkopkar\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA58A13B-D359-42A6-8DD6-61F2B19C146E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F2CC05-70E6-45A4-9281-9337DB063E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2E8CD1E3-45E7-4754-8C58-5E9B6364AB8C}"/>
+    <workbookView xWindow="2544" yWindow="2544" windowWidth="17280" windowHeight="8880" xr2:uid="{2E8CD1E3-45E7-4754-8C58-5E9B6364AB8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Nomor Anggota</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>Tanggal Bayar</t>
+  </si>
+  <si>
+    <t>Keterangan</t>
+  </si>
+  <si>
+    <t>IURAN BULAN JULY 2025</t>
   </si>
 </sst>
 </file>
@@ -500,20 +506,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B0B6173-9C9B-4B37-B0E3-EBD30C0093EF}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="54.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -521,29 +527,36 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="5">
         <v>200000</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="7">
         <v>45779</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="8"/>
-      <c r="D3" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="8"/>
+      <c r="E3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/assets/template/Template_Saldo_simpanan.xlsx
+++ b/assets/template/Template_Saldo_simpanan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\inkopkar\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F2CC05-70E6-45A4-9281-9337DB063E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334BD212-7295-4454-B683-3B6B05B07C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2544" yWindow="2544" windowWidth="17280" windowHeight="8880" xr2:uid="{2E8CD1E3-45E7-4754-8C58-5E9B6364AB8C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2E8CD1E3-45E7-4754-8C58-5E9B6364AB8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Nomor Anggota</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>IURAN BULAN JULY 2025</t>
+  </si>
+  <si>
+    <t>Sampai Dengan</t>
   </si>
 </sst>
 </file>
@@ -506,20 +509,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B0B6173-9C9B-4B37-B0E3-EBD30C0093EF}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -532,9 +536,12 @@
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3"/>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -547,16 +554,20 @@
       <c r="D2" s="7">
         <v>45779</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="7">
+        <v>45779</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="8"/>
-      <c r="E3" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/assets/template/Template_Saldo_simpanan.xlsx
+++ b/assets/template/Template_Saldo_simpanan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\inkopkar\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334BD212-7295-4454-B683-3B6B05B07C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0A72A7-2021-4B76-8E13-2F2F87F2D63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2E8CD1E3-45E7-4754-8C58-5E9B6364AB8C}"/>
   </bookViews>
@@ -512,7 +512,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -552,10 +552,12 @@
         <v>6</v>
       </c>
       <c r="D2" s="7">
-        <v>45779</v>
+        <f ca="1">TODAY()</f>
+        <v>45880</v>
       </c>
       <c r="E2" s="7">
-        <v>45779</v>
+        <f ca="1">TODAY()</f>
+        <v>45880</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>2</v>

--- a/assets/template/Template_Saldo_simpanan.xlsx
+++ b/assets/template/Template_Saldo_simpanan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\inkopkar\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0A72A7-2021-4B76-8E13-2F2F87F2D63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F5E76C-22EE-413C-8E6F-3E5EB3F03E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2E8CD1E3-45E7-4754-8C58-5E9B6364AB8C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Nomor Anggota</t>
   </si>
@@ -81,6 +81,15 @@
   </si>
   <si>
     <t>Sampai Dengan</t>
+  </si>
+  <si>
+    <t>Tipe Simpanan</t>
+  </si>
+  <si>
+    <t>Simpanan Pokok</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -509,67 +518,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B0B6173-9C9B-4B37-B0E3-EBD30C0093EF}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
         <v>200000</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7">
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="7">
         <f ca="1">TODAY()</f>
-        <v>45880</v>
-      </c>
-      <c r="E2" s="7">
+        <v>45889</v>
+      </c>
+      <c r="G2" s="7">
         <f ca="1">TODAY()</f>
-        <v>45880</v>
-      </c>
-      <c r="F2" s="4" t="s">
+        <v>45889</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
-      <c r="D3" s="8"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="8"/>
-      <c r="F3" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" t="s">
         <v>3</v>
       </c>
     </row>
